--- a/ExcelData/Data_Table/BossSkill.xlsx
+++ b/ExcelData/Data_Table/BossSkill.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\카카오톡 받은 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEB418F-7014-4E8D-8E2B-0B3A651F77D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9615" yWindow="5475" windowWidth="19560" windowHeight="12210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9615" yWindow="5475" windowWidth="19560" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table_List" sheetId="2" r:id="rId1"/>
@@ -485,7 +484,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -1092,6 +1091,27 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1128,24 +1148,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1159,9 +1161,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1383,7 +1382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z802"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -1452,11 +1451,11 @@
       <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
       <c r="J2" s="12" t="s">
         <v>6</v>
       </c>
@@ -1494,11 +1493,11 @@
       <c r="F3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="24" t="s">
         <v>13</v>
       </c>
@@ -1524,13 +1523,13 @@
       <c r="B4" s="23">
         <v>1</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="57"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="60"/>
       <c r="J4" s="25"/>
       <c r="K4" s="13"/>
       <c r="L4" s="14"/>
@@ -1554,13 +1553,13 @@
       <c r="B5" s="23">
         <v>2</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="58"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="26"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
       <c r="J5" s="25"/>
       <c r="K5" s="13"/>
       <c r="L5" s="14"/>
@@ -1584,13 +1583,13 @@
       <c r="B6" s="23">
         <v>3</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="58"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="26"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="25"/>
       <c r="K6" s="13"/>
       <c r="L6" s="14"/>
@@ -1614,13 +1613,13 @@
       <c r="B7" s="23">
         <v>4</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="58"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="26"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
       <c r="J7" s="25"/>
       <c r="K7" s="13"/>
       <c r="L7" s="14"/>
@@ -1644,13 +1643,13 @@
       <c r="B8" s="23">
         <v>5</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="58"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="25"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="60"/>
       <c r="J8" s="25"/>
       <c r="K8" s="13"/>
       <c r="L8" s="14"/>
@@ -1674,13 +1673,13 @@
       <c r="B9" s="23">
         <v>6</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="58"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="26"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
       <c r="J9" s="28"/>
       <c r="K9" s="13"/>
       <c r="L9" s="14"/>
@@ -1704,13 +1703,13 @@
       <c r="B10" s="23">
         <v>7</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="58"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="26"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
       <c r="J10" s="25"/>
       <c r="K10" s="13"/>
       <c r="L10" s="14"/>
@@ -1734,13 +1733,13 @@
       <c r="B11" s="23">
         <v>8</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="58"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="26"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="60"/>
       <c r="J11" s="25"/>
       <c r="K11" s="13"/>
       <c r="L11" s="14"/>
@@ -1764,13 +1763,13 @@
       <c r="B12" s="23">
         <v>9</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="58"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="26"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
       <c r="J12" s="25"/>
       <c r="K12" s="13"/>
       <c r="L12" s="14"/>
@@ -1794,13 +1793,13 @@
       <c r="B13" s="23">
         <v>10</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="59"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="25"/>
       <c r="F13" s="27"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="60"/>
       <c r="J13" s="25"/>
       <c r="K13" s="13"/>
       <c r="L13" s="14"/>
@@ -1824,13 +1823,13 @@
       <c r="B14" s="23">
         <v>11</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="60"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="26"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="60"/>
       <c r="J14" s="25"/>
       <c r="K14" s="13"/>
       <c r="L14" s="14"/>
@@ -1854,13 +1853,13 @@
       <c r="B15" s="23">
         <v>12</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="26"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="60"/>
       <c r="J15" s="25"/>
       <c r="K15" s="13"/>
       <c r="L15" s="14"/>
@@ -1884,13 +1883,13 @@
       <c r="B16" s="23">
         <v>13</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="69"/>
       <c r="E16" s="25"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="60"/>
       <c r="J16" s="25"/>
       <c r="K16" s="13"/>
       <c r="L16" s="14"/>
@@ -23919,11 +23918,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="C4:C16"/>
@@ -23937,6 +23931,11 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -23945,7 +23944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -23968,9 +23967,9 @@
     <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.625" customWidth="1"/>
-    <col min="13" max="13" width="8.75" style="22" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="8.75" style="35" hidden="1" customWidth="1"/>
-    <col min="16" max="18" width="8.75" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.75" style="22" customWidth="1"/>
+    <col min="14" max="15" width="8.75" style="35" customWidth="1"/>
+    <col min="16" max="18" width="8.75" customWidth="1"/>
     <col min="19" max="19" width="8.625" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="7.375" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="9.125" bestFit="1" customWidth="1"/>
@@ -24021,16 +24020,16 @@
     </row>
     <row r="2" spans="1:34" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="74" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="36"/>
@@ -24055,7 +24054,7 @@
       <c r="Y2" s="37"/>
       <c r="Z2" s="37"/>
       <c r="AA2" s="37"/>
-      <c r="AB2" s="69" t="s">
+      <c r="AB2" s="70" t="s">
         <v>18</v>
       </c>
       <c r="AC2" s="1"/>
@@ -24067,10 +24066,10 @@
     </row>
     <row r="3" spans="1:34" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="39" t="s">
         <v>21</v>
       </c>
@@ -24137,7 +24136,7 @@
       <c r="AA3" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="AB3" s="70"/>
+      <c r="AB3" s="71"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
@@ -24437,7 +24436,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="46">
         <v>2</v>
@@ -24613,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="46">
         <v>3</v>
@@ -24707,7 +24706,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L10" s="46">
         <v>30</v>
@@ -24743,7 +24742,7 @@
         <v>101001</v>
       </c>
       <c r="W10" s="49">
-        <v>0</v>
+        <v>102001</v>
       </c>
       <c r="X10" s="49">
         <v>1</v>
@@ -24770,7 +24769,7 @@
       <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -60596,8 +60595,8 @@
       <c r="AH1000" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:AB105" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:AB105">
+  <autoFilter ref="B5:AB105">
+    <sortState ref="B6:AB105">
       <sortCondition ref="B5:B105"/>
     </sortState>
   </autoFilter>
